--- a/src/main/java/br/com/rsinet_hubTesteBDDAppium/TesteMobileAppiumUtils/CadastroCliente.xlsx
+++ b/src/main/java/br/com/rsinet_hubTesteBDDAppium/TesteMobileAppiumUtils/CadastroCliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Desktop\4444444444444444\BDDAppium\src\main\java\br\com\rsinet_hubTesteBDDAppium\TesteMobileAppiumUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AFBA7C-5F39-4E7B-AA24-E3940818FA6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A712F7-D042-482D-B2C3-0A4D98A41F81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{88BCECF4-9ED0-4978-846D-740B37C1BE42}"/>
   </bookViews>

--- a/src/main/java/br/com/rsinet_hubTesteBDDAppium/TesteMobileAppiumUtils/CadastroCliente.xlsx
+++ b/src/main/java/br/com/rsinet_hubTesteBDDAppium/TesteMobileAppiumUtils/CadastroCliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Desktop\4444444444444444\BDDAppium\src\main\java\br\com\rsinet_hubTesteBDDAppium\TesteMobileAppiumUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A712F7-D042-482D-B2C3-0A4D98A41F81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FC57F-2B0F-45E1-B9D9-722973E9DFAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{88BCECF4-9ED0-4978-846D-740B37C1BE42}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">Albania </t>
   </si>
   <si>
-    <t>Gehr32</t>
+    <t>Gfdr45</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/br/com/rsinet_hubTesteBDDAppium/TesteMobileAppiumUtils/CadastroCliente.xlsx
+++ b/src/main/java/br/com/rsinet_hubTesteBDDAppium/TesteMobileAppiumUtils/CadastroCliente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Desktop\4444444444444444\BDDAppium\src\main\java\br\com\rsinet_hubTesteBDDAppium\TesteMobileAppiumUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehaime.silva\Desktop\qqqqqqqqqqqqqqqqq\BDDAppium\src\main\java\br\com\rsinet_hubTesteBDDAppium\TesteMobileAppiumUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FC57F-2B0F-45E1-B9D9-722973E9DFAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF234272-9C95-44B0-9DEE-4D2013A2BC47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{88BCECF4-9ED0-4978-846D-740B37C1BE42}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">Albania </t>
   </si>
   <si>
-    <t>Gfdr45</t>
+    <t>Jucca25</t>
   </si>
 </sst>
 </file>
